--- a/library_management/data/borrowers.xlsx
+++ b/library_management/data/borrowers.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SQL-Projects\library_management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC89CEB-92E8-477D-B4B1-EDFABCA41E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BB7CD-41AC-41EB-AAC8-FF88DD9A3306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="300">
   <si>
     <t>borrower_id</t>
   </si>
@@ -625,6 +634,306 @@
   </si>
   <si>
     <t>xavier.garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>C023</t>
+  </si>
+  <si>
+    <t>C024</t>
+  </si>
+  <si>
+    <t>C025</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>C027</t>
+  </si>
+  <si>
+    <t>C028</t>
+  </si>
+  <si>
+    <t>C029</t>
+  </si>
+  <si>
+    <t>C030</t>
+  </si>
+  <si>
+    <t>C031</t>
+  </si>
+  <si>
+    <t>C032</t>
+  </si>
+  <si>
+    <t>C033</t>
+  </si>
+  <si>
+    <t>C034</t>
+  </si>
+  <si>
+    <t>C035</t>
+  </si>
+  <si>
+    <t>C036</t>
+  </si>
+  <si>
+    <t>C037</t>
+  </si>
+  <si>
+    <t>C038</t>
+  </si>
+  <si>
+    <t>C039</t>
+  </si>
+  <si>
+    <t>C040</t>
+  </si>
+  <si>
+    <t>C041</t>
+  </si>
+  <si>
+    <t>C042</t>
+  </si>
+  <si>
+    <t>C043</t>
+  </si>
+  <si>
+    <t>C044</t>
+  </si>
+  <si>
+    <t>C045</t>
+  </si>
+  <si>
+    <t>C046</t>
+  </si>
+  <si>
+    <t>C047</t>
+  </si>
+  <si>
+    <t>C048</t>
+  </si>
+  <si>
+    <t>C049</t>
+  </si>
+  <si>
+    <t>C050</t>
+  </si>
+  <si>
+    <t>C051</t>
+  </si>
+  <si>
+    <t>C052</t>
+  </si>
+  <si>
+    <t>C053</t>
+  </si>
+  <si>
+    <t>C054</t>
+  </si>
+  <si>
+    <t>C055</t>
+  </si>
+  <si>
+    <t>C056</t>
+  </si>
+  <si>
+    <t>C057</t>
+  </si>
+  <si>
+    <t>C058</t>
+  </si>
+  <si>
+    <t>C059</t>
+  </si>
+  <si>
+    <t>C060</t>
+  </si>
+  <si>
+    <t>C061</t>
+  </si>
+  <si>
+    <t>C062</t>
+  </si>
+  <si>
+    <t>C063</t>
+  </si>
+  <si>
+    <t>C064</t>
+  </si>
+  <si>
+    <t>C065</t>
+  </si>
+  <si>
+    <t>C066</t>
+  </si>
+  <si>
+    <t>C067</t>
+  </si>
+  <si>
+    <t>C068</t>
+  </si>
+  <si>
+    <t>C069</t>
+  </si>
+  <si>
+    <t>C070</t>
+  </si>
+  <si>
+    <t>C071</t>
+  </si>
+  <si>
+    <t>C072</t>
+  </si>
+  <si>
+    <t>C073</t>
+  </si>
+  <si>
+    <t>C074</t>
+  </si>
+  <si>
+    <t>C075</t>
+  </si>
+  <si>
+    <t>C076</t>
+  </si>
+  <si>
+    <t>C077</t>
+  </si>
+  <si>
+    <t>C078</t>
+  </si>
+  <si>
+    <t>C079</t>
+  </si>
+  <si>
+    <t>C080</t>
+  </si>
+  <si>
+    <t>C081</t>
+  </si>
+  <si>
+    <t>C082</t>
+  </si>
+  <si>
+    <t>C083</t>
+  </si>
+  <si>
+    <t>C084</t>
+  </si>
+  <si>
+    <t>C085</t>
+  </si>
+  <si>
+    <t>C086</t>
+  </si>
+  <si>
+    <t>C087</t>
+  </si>
+  <si>
+    <t>C088</t>
+  </si>
+  <si>
+    <t>C089</t>
+  </si>
+  <si>
+    <t>C090</t>
+  </si>
+  <si>
+    <t>C091</t>
+  </si>
+  <si>
+    <t>C092</t>
+  </si>
+  <si>
+    <t>C093</t>
+  </si>
+  <si>
+    <t>C094</t>
+  </si>
+  <si>
+    <t>C095</t>
+  </si>
+  <si>
+    <t>C096</t>
+  </si>
+  <si>
+    <t>C097</t>
+  </si>
+  <si>
+    <t>C098</t>
+  </si>
+  <si>
+    <t>C099</t>
+  </si>
+  <si>
+    <t>C100</t>
   </si>
 </sst>
 </file>
@@ -945,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,8 +1281,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -986,8 +1295,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1000,8 +1309,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1014,8 +1323,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1028,8 +1337,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1042,8 +1351,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1056,8 +1365,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1070,8 +1379,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1084,8 +1393,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1098,8 +1407,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1112,8 +1421,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1126,8 +1435,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1140,8 +1449,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1154,8 +1463,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1168,8 +1477,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1182,8 +1491,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1196,8 +1505,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1210,8 +1519,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -1224,8 +1533,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1238,8 +1547,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1252,8 +1561,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -1266,8 +1575,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -1280,8 +1589,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1294,8 +1603,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1308,8 +1617,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>224</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1322,8 +1631,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>225</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -1336,8 +1645,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>226</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1350,8 +1659,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>227</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -1364,8 +1673,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>228</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
@@ -1378,8 +1687,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>229</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
@@ -1392,8 +1701,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>230</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
@@ -1406,8 +1715,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>231</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
@@ -1420,8 +1729,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>232</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
@@ -1434,8 +1743,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>233</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -1448,8 +1757,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1462,8 +1771,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>235</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -1476,8 +1785,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>236</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
@@ -1490,8 +1799,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>237</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -1504,8 +1813,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" t="s">
+        <v>238</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
@@ -1518,8 +1827,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" t="s">
+        <v>239</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -1532,8 +1841,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>240</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
@@ -1546,8 +1855,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" t="s">
+        <v>241</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
@@ -1560,8 +1869,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" t="s">
+        <v>242</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
@@ -1574,8 +1883,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>243</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
@@ -1588,8 +1897,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" t="s">
+        <v>244</v>
       </c>
       <c r="B46" t="s">
         <v>92</v>
@@ -1602,8 +1911,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" t="s">
+        <v>245</v>
       </c>
       <c r="B47" t="s">
         <v>94</v>
@@ -1616,8 +1925,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>246</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
@@ -1630,8 +1939,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" t="s">
+        <v>247</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
@@ -1644,8 +1953,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" t="s">
+        <v>248</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
@@ -1658,8 +1967,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" t="s">
+        <v>249</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1672,8 +1981,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" t="s">
+        <v>250</v>
       </c>
       <c r="B52" t="s">
         <v>104</v>
@@ -1686,8 +1995,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" t="s">
+        <v>251</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
@@ -1700,8 +2009,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" t="s">
+        <v>252</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -1714,8 +2023,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" t="s">
+        <v>253</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
@@ -1728,8 +2037,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" t="s">
+        <v>254</v>
       </c>
       <c r="B56" t="s">
         <v>112</v>
@@ -1742,8 +2051,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" t="s">
+        <v>255</v>
       </c>
       <c r="B57" t="s">
         <v>114</v>
@@ -1756,8 +2065,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" t="s">
+        <v>256</v>
       </c>
       <c r="B58" t="s">
         <v>116</v>
@@ -1770,8 +2079,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" t="s">
+        <v>257</v>
       </c>
       <c r="B59" t="s">
         <v>118</v>
@@ -1784,8 +2093,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>258</v>
       </c>
       <c r="B60" t="s">
         <v>120</v>
@@ -1798,8 +2107,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" t="s">
+        <v>259</v>
       </c>
       <c r="B61" t="s">
         <v>122</v>
@@ -1812,8 +2121,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" t="s">
+        <v>260</v>
       </c>
       <c r="B62" t="s">
         <v>124</v>
@@ -1826,8 +2135,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>261</v>
       </c>
       <c r="B63" t="s">
         <v>126</v>
@@ -1840,8 +2149,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" t="s">
+        <v>262</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
@@ -1854,8 +2163,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" t="s">
+        <v>263</v>
       </c>
       <c r="B65" t="s">
         <v>130</v>
@@ -1868,8 +2177,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" t="s">
+        <v>264</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
@@ -1882,8 +2191,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" t="s">
+        <v>265</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
@@ -1896,8 +2205,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" t="s">
+        <v>266</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
@@ -1910,8 +2219,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" t="s">
+        <v>267</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -1924,8 +2233,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" t="s">
+        <v>268</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
@@ -1938,8 +2247,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>269</v>
       </c>
       <c r="B71" t="s">
         <v>139</v>
@@ -1952,8 +2261,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" t="s">
+        <v>270</v>
       </c>
       <c r="B72" t="s">
         <v>141</v>
@@ -1966,8 +2275,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" t="s">
+        <v>271</v>
       </c>
       <c r="B73" t="s">
         <v>143</v>
@@ -1980,8 +2289,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" t="s">
+        <v>272</v>
       </c>
       <c r="B74" t="s">
         <v>145</v>
@@ -1994,8 +2303,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" t="s">
+        <v>273</v>
       </c>
       <c r="B75" t="s">
         <v>102</v>
@@ -2008,8 +2317,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" t="s">
+        <v>274</v>
       </c>
       <c r="B76" t="s">
         <v>148</v>
@@ -2022,8 +2331,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" t="s">
+        <v>275</v>
       </c>
       <c r="B77" t="s">
         <v>150</v>
@@ -2036,8 +2345,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" t="s">
+        <v>276</v>
       </c>
       <c r="B78" t="s">
         <v>152</v>
@@ -2050,8 +2359,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" t="s">
+        <v>277</v>
       </c>
       <c r="B79" t="s">
         <v>154</v>
@@ -2064,8 +2373,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" t="s">
+        <v>278</v>
       </c>
       <c r="B80" t="s">
         <v>156</v>
@@ -2078,8 +2387,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" t="s">
+        <v>279</v>
       </c>
       <c r="B81" t="s">
         <v>158</v>
@@ -2092,8 +2401,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>81</v>
+      <c r="A82" t="s">
+        <v>280</v>
       </c>
       <c r="B82" t="s">
         <v>160</v>
@@ -2106,8 +2415,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>82</v>
+      <c r="A83" t="s">
+        <v>281</v>
       </c>
       <c r="B83" t="s">
         <v>162</v>
@@ -2120,8 +2429,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>83</v>
+      <c r="A84" t="s">
+        <v>282</v>
       </c>
       <c r="B84" t="s">
         <v>164</v>
@@ -2134,8 +2443,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>84</v>
+      <c r="A85" t="s">
+        <v>283</v>
       </c>
       <c r="B85" t="s">
         <v>166</v>
@@ -2148,8 +2457,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>85</v>
+      <c r="A86" t="s">
+        <v>284</v>
       </c>
       <c r="B86" t="s">
         <v>168</v>
@@ -2162,8 +2471,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>86</v>
+      <c r="A87" t="s">
+        <v>285</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
@@ -2176,8 +2485,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>87</v>
+      <c r="A88" t="s">
+        <v>286</v>
       </c>
       <c r="B88" t="s">
         <v>172</v>
@@ -2190,8 +2499,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>88</v>
+      <c r="A89" t="s">
+        <v>287</v>
       </c>
       <c r="B89" t="s">
         <v>174</v>
@@ -2204,8 +2513,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>89</v>
+      <c r="A90" t="s">
+        <v>288</v>
       </c>
       <c r="B90" t="s">
         <v>176</v>
@@ -2218,8 +2527,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>90</v>
+      <c r="A91" t="s">
+        <v>289</v>
       </c>
       <c r="B91" t="s">
         <v>178</v>
@@ -2232,8 +2541,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>91</v>
+      <c r="A92" t="s">
+        <v>290</v>
       </c>
       <c r="B92" t="s">
         <v>180</v>
@@ -2246,8 +2555,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>92</v>
+      <c r="A93" t="s">
+        <v>291</v>
       </c>
       <c r="B93" t="s">
         <v>182</v>
@@ -2260,8 +2569,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>93</v>
+      <c r="A94" t="s">
+        <v>292</v>
       </c>
       <c r="B94" t="s">
         <v>184</v>
@@ -2274,8 +2583,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>94</v>
+      <c r="A95" t="s">
+        <v>293</v>
       </c>
       <c r="B95" t="s">
         <v>186</v>
@@ -2288,8 +2597,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>95</v>
+      <c r="A96" t="s">
+        <v>294</v>
       </c>
       <c r="B96" t="s">
         <v>188</v>
@@ -2302,8 +2611,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>96</v>
+      <c r="A97" t="s">
+        <v>295</v>
       </c>
       <c r="B97" t="s">
         <v>190</v>
@@ -2316,8 +2625,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>97</v>
+      <c r="A98" t="s">
+        <v>296</v>
       </c>
       <c r="B98" t="s">
         <v>192</v>
@@ -2330,8 +2639,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>98</v>
+      <c r="A99" t="s">
+        <v>297</v>
       </c>
       <c r="B99" t="s">
         <v>194</v>
@@ -2344,8 +2653,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>99</v>
+      <c r="A100" t="s">
+        <v>298</v>
       </c>
       <c r="B100" t="s">
         <v>196</v>
@@ -2358,8 +2667,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>100</v>
+      <c r="A101" t="s">
+        <v>299</v>
       </c>
       <c r="B101" t="s">
         <v>198</v>

--- a/library_management/data/borrowers.xlsx
+++ b/library_management/data/borrowers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SQL-Projects\library_management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BB7CD-41AC-41EB-AAC8-FF88DD9A3306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61E3E18-387E-4D49-9BBE-C846DDF57D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Join Date</t>
-  </si>
-  <si>
     <t>Alice Johnson</t>
   </si>
   <si>
@@ -934,6 +931,9 @@
   </si>
   <si>
     <t>C100</t>
+  </si>
+  <si>
+    <t>Join_Date</t>
   </si>
 </sst>
 </file>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1277,18 +1277,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>44576</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>44530</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>44967</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>44764</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>44444</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>44182</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>44986</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>44844</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>44946</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>44377</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>44419</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>44704</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>45021</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>44879</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>44531</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>44073</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>44938</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="1">
         <v>44639</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="1">
         <v>44404</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="1">
         <v>44812</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="1">
         <v>44981</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="1">
         <v>44489</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="1">
         <v>44727</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="1">
         <v>44140</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="1">
         <v>44995</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="1">
         <v>44318</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="1">
         <v>44771</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="1">
         <v>44933</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="1">
         <v>44793</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="1">
         <v>44303</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="1">
         <v>44898</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="1">
         <v>44972</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="1">
         <v>44509</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="1">
         <v>44132</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="1">
         <v>44624</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="1">
         <v>45034</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="1">
         <v>44464</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="1">
         <v>44721</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="1">
         <v>44956</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="1">
         <v>44383</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
       </c>
       <c r="D42" s="1">
         <v>44693</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
       </c>
       <c r="D43" s="1">
         <v>45007</v>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
         <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
       </c>
       <c r="D44" s="1">
         <v>44482</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>44833</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="1">
         <v>45024</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
         <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
       </c>
       <c r="D47" s="1">
         <v>44166</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="1">
         <v>44612</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
       </c>
       <c r="D49" s="1">
         <v>44931</v>
@@ -1954,13 +1954,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
         <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="1">
         <v>44427</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
       </c>
       <c r="D51" s="1">
         <v>44892</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
         <v>104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
       </c>
       <c r="D52" s="1">
         <v>44969</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
         <v>106</v>
-      </c>
-      <c r="C53" t="s">
-        <v>107</v>
       </c>
       <c r="D53" s="1">
         <v>44669</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
         <v>108</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
       </c>
       <c r="D54" s="1">
         <v>44477</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>111</v>
       </c>
       <c r="D55" s="1">
         <v>44947</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
         <v>112</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
       </c>
       <c r="D56" s="1">
         <v>44784</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
         <v>114</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
       </c>
       <c r="D57" s="1">
         <v>44530</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
         <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
       </c>
       <c r="D58" s="1">
         <v>44647</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
         <v>118</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
       </c>
       <c r="D59" s="1">
         <v>45020</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
         <v>120</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
       </c>
       <c r="D60" s="1">
         <v>44728</v>
@@ -2108,13 +2108,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
         <v>122</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
       </c>
       <c r="D61" s="1">
         <v>44399</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>125</v>
       </c>
       <c r="D62" s="1">
         <v>44591</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
         <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>127</v>
       </c>
       <c r="D63" s="1">
         <v>44993</v>
@@ -2150,13 +2150,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
       </c>
       <c r="D64" s="1">
         <v>44454</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
         <v>130</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
       </c>
       <c r="D65" s="1">
         <v>44866</v>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1">
         <v>44966</v>
@@ -2192,13 +2192,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
         <v>133</v>
-      </c>
-      <c r="C67" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="1">
         <v>44412</v>
@@ -2206,13 +2206,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" s="1">
         <v>44698</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1">
         <v>44937</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
         <v>137</v>
-      </c>
-      <c r="C70" t="s">
-        <v>138</v>
       </c>
       <c r="D70" s="1">
         <v>44770</v>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
         <v>139</v>
-      </c>
-      <c r="C71" t="s">
-        <v>140</v>
       </c>
       <c r="D71" s="1">
         <v>44544</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
         <v>141</v>
-      </c>
-      <c r="C72" t="s">
-        <v>142</v>
       </c>
       <c r="D72" s="1">
         <v>44990</v>
@@ -2276,13 +2276,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
         <v>143</v>
-      </c>
-      <c r="C73" t="s">
-        <v>144</v>
       </c>
       <c r="D73" s="1">
         <v>44825</v>
@@ -2290,13 +2290,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
         <v>145</v>
-      </c>
-      <c r="C74" t="s">
-        <v>146</v>
       </c>
       <c r="D74" s="1">
         <v>44350</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1">
         <v>45030</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
         <v>148</v>
-      </c>
-      <c r="C76" t="s">
-        <v>149</v>
       </c>
       <c r="D76" s="1">
         <v>44781</v>
@@ -2332,13 +2332,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
         <v>150</v>
-      </c>
-      <c r="C77" t="s">
-        <v>151</v>
       </c>
       <c r="D77" s="1">
         <v>44344</v>
@@ -2346,13 +2346,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
         <v>152</v>
-      </c>
-      <c r="C78" t="s">
-        <v>153</v>
       </c>
       <c r="D78" s="1">
         <v>44953</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
         <v>154</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
       </c>
       <c r="D79" s="1">
         <v>44716</v>
@@ -2374,13 +2374,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
         <v>156</v>
-      </c>
-      <c r="C80" t="s">
-        <v>157</v>
       </c>
       <c r="D80" s="1">
         <v>45014</v>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
         <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>159</v>
       </c>
       <c r="D81" s="1">
         <v>44513</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
         <v>160</v>
-      </c>
-      <c r="C82" t="s">
-        <v>161</v>
       </c>
       <c r="D82" s="1">
         <v>44657</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
         <v>162</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
       </c>
       <c r="D83" s="1">
         <v>44976</v>
@@ -2430,13 +2430,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" t="s">
         <v>164</v>
-      </c>
-      <c r="C84" t="s">
-        <v>165</v>
       </c>
       <c r="D84" s="1">
         <v>44431</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" t="s">
         <v>166</v>
-      </c>
-      <c r="C85" t="s">
-        <v>167</v>
       </c>
       <c r="D85" s="1">
         <v>44904</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
         <v>168</v>
-      </c>
-      <c r="C86" t="s">
-        <v>169</v>
       </c>
       <c r="D86" s="1">
         <v>45017</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
         <v>170</v>
-      </c>
-      <c r="C87" t="s">
-        <v>171</v>
       </c>
       <c r="D87" s="1">
         <v>44635</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
         <v>172</v>
-      </c>
-      <c r="C88" t="s">
-        <v>173</v>
       </c>
       <c r="D88" s="1">
         <v>44408</v>
@@ -2500,13 +2500,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" t="s">
         <v>174</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
       </c>
       <c r="D89" s="1">
         <v>44841</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" t="s">
         <v>176</v>
-      </c>
-      <c r="C90" t="s">
-        <v>177</v>
       </c>
       <c r="D90" s="1">
         <v>44942</v>
@@ -2528,13 +2528,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" t="s">
         <v>178</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
       </c>
       <c r="D91" s="1">
         <v>44686</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" t="s">
         <v>180</v>
-      </c>
-      <c r="C92" t="s">
-        <v>181</v>
       </c>
       <c r="D92" s="1">
         <v>44985</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" t="s">
         <v>182</v>
-      </c>
-      <c r="C93" t="s">
-        <v>183</v>
       </c>
       <c r="D93" s="1">
         <v>44368</v>
@@ -2570,13 +2570,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
         <v>184</v>
-      </c>
-      <c r="C94" t="s">
-        <v>185</v>
       </c>
       <c r="D94" s="1">
         <v>44790</v>
@@ -2584,13 +2584,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" t="s">
         <v>186</v>
-      </c>
-      <c r="C95" t="s">
-        <v>187</v>
       </c>
       <c r="D95" s="1">
         <v>45026</v>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" t="s">
         <v>188</v>
-      </c>
-      <c r="C96" t="s">
-        <v>189</v>
       </c>
       <c r="D96" s="1">
         <v>44526</v>
@@ -2612,13 +2612,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" t="s">
         <v>190</v>
-      </c>
-      <c r="C97" t="s">
-        <v>191</v>
       </c>
       <c r="D97" s="1">
         <v>44580</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" t="s">
         <v>192</v>
-      </c>
-      <c r="C98" t="s">
-        <v>193</v>
       </c>
       <c r="D98" s="1">
         <v>44999</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" t="s">
         <v>194</v>
-      </c>
-      <c r="C99" t="s">
-        <v>195</v>
       </c>
       <c r="D99" s="1">
         <v>44451</v>
@@ -2654,13 +2654,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
         <v>196</v>
-      </c>
-      <c r="C100" t="s">
-        <v>197</v>
       </c>
       <c r="D100" s="1">
         <v>44745</v>
@@ -2668,13 +2668,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
         <v>198</v>
-      </c>
-      <c r="C101" t="s">
-        <v>199</v>
       </c>
       <c r="D101" s="1">
         <v>44963</v>
